--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkpk1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitShareDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B514B-8478-4051-891F-2B20575C1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6180E50B-F5F4-432D-8DBD-1FC066ECA1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FCB06ACB-90CA-4634-A1E9-E50E7FC72FF3}"/>
   </bookViews>
@@ -800,29 +800,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,24 +1623,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="85.95" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17" ht="169.5" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -1684,23 +1684,23 @@
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="63.45" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="21">
@@ -1724,57 +1724,57 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="118.95" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="8"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="21">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:17" ht="119.55" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1804,23 +1804,23 @@
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" ht="21">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:17" ht="172.95" customHeight="1">
@@ -1852,23 +1852,23 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:17" ht="21">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="84.45" customHeight="1">
       <c r="A14" s="19" t="s">
@@ -1905,11 +1905,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:J15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A7:O7"/>
@@ -1919,6 +1914,11 @@
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68CE8E1-A695-44D8-84B9-8BCA3DD69385}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2087,7 +2087,7 @@
       <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       <c r="A67" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="18" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="A68" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2111,36 +2111,37 @@
       <c r="A69" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="43.2">
+    <row r="84" spans="1:4" ht="43.2">
       <c r="A84" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
         <v>65</v>
       </c>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitShareDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkpk1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6180E50B-F5F4-432D-8DBD-1FC066ECA1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD352B97-6E38-4B5C-B226-AE3524E5BE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FCB06ACB-90CA-4634-A1E9-E50E7FC72FF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FCB06ACB-90CA-4634-A1E9-E50E7FC72FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bristol Elections" sheetId="1" r:id="rId1"/>
     <sheet name="census" sheetId="2" r:id="rId2"/>
     <sheet name="8.1 Elections" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
   <si>
     <t>1. List the names of all parties that stood in the election, ordered alphabetically by name.</t>
   </si>
@@ -537,12 +538,258 @@
   <si>
     <t>where Ward.name='Whitchurch Park' ) A WHERE A.party='Labour'</t>
   </si>
+  <si>
+    <t xml:space="preserve">SELECT data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM Statistic </t>
+  </si>
+  <si>
+    <t>INNER JOIN Ward A ON A.code = Statistic.wardId</t>
+  </si>
+  <si>
+    <t>INNER JOIN Occupation B ON B.id = Statistic.occId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE A.code = 'E05001979' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND B.name = 'Sales and customer service occupations' </t>
+  </si>
+  <si>
+    <t>AND Statistic.gender = '1';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT SUM(data) FROM Statistic </t>
+  </si>
+  <si>
+    <t>AND  B.name = 'Sales and customer service occupations';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT SUM(data) AS people </t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>INNER JOIN Ward</t>
+  </si>
+  <si>
+    <t>ON Statistic.wardid = Ward.code</t>
+  </si>
+  <si>
+    <t>WHERE Ward.parent = 'E06000023' AND Statistic.occid = '6';</t>
+  </si>
+  <si>
+    <t>SELECT Occupation.name AS occupation, D.data AS data</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT SUM(data) AS data, occid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE Statistic.wardid = 'E05001979' </t>
+  </si>
+  <si>
+    <t>GROUP BY occid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">) AS D </t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>ON Occupation.id = D.occid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT A.wardid, Ward.name,County.name, SUM(data) AS pop FROM Statistic AS A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INNER JOIN Ward ON  Ward.code= A.wardid </t>
+  </si>
+  <si>
+    <t>INNER JOIN County ON County.code = Ward.parent</t>
+  </si>
+  <si>
+    <t>GROUP BY wardid ORDER BY pop LIMIT 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SELECT A.wardid, Ward.name,County.name, SUM(data) AS pop FROM Statistic AS A </t>
+  </si>
+  <si>
+    <t>GROUP BY wardid ORDER BY pop LIMIT 1)</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>(SELECT  A.wardid, Ward.name,County.name, SUM(data) AS pop FROM Statistic AS A</t>
+  </si>
+  <si>
+    <t>GROUP BY wardid ORDER BY pop DESC LIMIT 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT AVG(pop) FROM </t>
+  </si>
+  <si>
+    <t>SELECT SUM(Statistic.data) AS pop</t>
+  </si>
+  <si>
+    <t>FROM County</t>
+  </si>
+  <si>
+    <t>ON Ward.parent = County.code</t>
+  </si>
+  <si>
+    <t>INNER JOIN Statistic</t>
+  </si>
+  <si>
+    <t>WHERE County.parent = 'E12000007'</t>
+  </si>
+  <si>
+    <t>GROUP BY Ward.code</t>
+  </si>
+  <si>
+    <t>) AS pops;</t>
+  </si>
+  <si>
+    <t>SELECT region, AVG(pop) AS pop FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT SUM(Statistic.data) AS pop, County.parent AS parent, Region.name AS region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FROM County</t>
+  </si>
+  <si>
+    <t>INNER JOIN Region</t>
+  </si>
+  <si>
+    <t>ON Region.code = County.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON Ward.parent = County.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN Statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON Statistic.wardid = Ward.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GROUP BY Ward.code</t>
+  </si>
+  <si>
+    <t>) AS pops</t>
+  </si>
+  <si>
+    <t>GROUP BY parent;</t>
+  </si>
+  <si>
+    <t>SELECT A.pop, B.pop, A.pop/B.pop AS percentage FROM(</t>
+  </si>
+  <si>
+    <t>SELECT SUM(Statistic.data) AS pop, County.parent AS parent, Region.name AS region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN Region ON Region.code = County.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN Ward ON Ward.parent = County.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN Statistic ON Statistic.wardid = Ward.code</t>
+  </si>
+  <si>
+    <t>WHERE Statistic.occid = '1' AND Statistic.gender = '1'</t>
+  </si>
+  <si>
+    <t>GROUP BY region</t>
+  </si>
+  <si>
+    <t>) A</t>
+  </si>
+  <si>
+    <t>LEFT JOIN (</t>
+  </si>
+  <si>
+    <t>GROUP BY region ) B ON A.region = B.region</t>
+  </si>
+  <si>
+    <r>
+      <t>How many </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF262625"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>women</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF262625"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> work in sales and customer service occupations and live in the Cabot ward of Bristol (E05001979)?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many people work in sales and customer service occupations and live in the Cabot ward of Bristol (E05001979)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many people work in caring, leisure and other service occupations (occupation class 6) in all of the City of Bristol CLU (E06000023)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the Cabot ward (E05001979), produce a table listing the names of the 9 occupation classes and the number of people in each of the classes in this ward.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the working population, ward name and CLU name for the smallest ward (by working population) in the 2011 census.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The same as the last question, but now produce a table with two rows, one for the smallest and one for the largest ward. There's no quicker way than repeating the last query twice, the question is how to stick the two "copies" together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the average size of a ward's working population in the London (E12000007) region.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The same as the last question but now for every region - your query should produce a table with one row per region. The intention here is not to repeat the above query 9 times.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Produce a table that lists, for each of the 9 regions of England, the percentage of people in managerial (class 1) occupations who are women.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -704,8 +951,21 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF262625"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF262625"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +990,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -745,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +1095,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1929,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68CE8E1-A695-44D8-84B9-8BCA3DD69385}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2125,23 +2406,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="43.2">
+    <row r="84" spans="1:1" ht="43.2">
       <c r="A84" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D84" s="18"/>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:1">
       <c r="A86" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:1">
       <c r="A87" s="12" t="s">
         <v>65</v>
       </c>
@@ -2222,4 +2502,488 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EE2575-5D55-450A-B4EC-A8DFA36BCA77}">
+  <dimension ref="A1:A118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30">
+      <c r="A1" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="28"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="28"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="28"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>